--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.553248197479317</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H2">
-        <v>0.553248197479317</v>
+        <v>0.189466</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.08692959137136654</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.08692959137136655</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.127317225489265</v>
+        <v>0.167255</v>
       </c>
       <c r="N2">
-        <v>0.127317225489265</v>
+        <v>0.501765</v>
       </c>
       <c r="O2">
-        <v>0.1028908665632954</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="P2">
-        <v>0.1028908665632954</v>
+        <v>0.1064977723687984</v>
       </c>
       <c r="Q2">
-        <v>0.07043802551000361</v>
+        <v>0.01056304527666667</v>
       </c>
       <c r="R2">
-        <v>0.07043802551000361</v>
+        <v>0.09506740749000001</v>
       </c>
       <c r="S2">
-        <v>0.1028908665632954</v>
+        <v>0.009257807833980452</v>
       </c>
       <c r="T2">
-        <v>0.1028908665632954</v>
+        <v>0.009257807833980454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.553248197479317</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H3">
-        <v>0.553248197479317</v>
+        <v>0.189466</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.08692959137136654</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.08692959137136655</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.405051463781167</v>
+        <v>0.429376</v>
       </c>
       <c r="N3">
-        <v>0.405051463781167</v>
+        <v>1.288128</v>
       </c>
       <c r="O3">
-        <v>0.3273405931602676</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="P3">
-        <v>0.3273405931602676</v>
+        <v>0.2734004215636314</v>
       </c>
       <c r="Q3">
-        <v>0.2240939922232895</v>
+        <v>0.02711738440533333</v>
       </c>
       <c r="R3">
-        <v>0.2240939922232895</v>
+        <v>0.244056459648</v>
       </c>
       <c r="S3">
-        <v>0.3273405931602676</v>
+        <v>0.02376658692728582</v>
       </c>
       <c r="T3">
-        <v>0.3273405931602676</v>
+        <v>0.02376658692728583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -655,49 +664,855 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.553248197479317</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H4">
-        <v>0.553248197479317</v>
+        <v>0.189466</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.08692959137136654</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.08692959137136655</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.705031963886116</v>
+        <v>0.02801</v>
       </c>
       <c r="N4">
-        <v>0.705031963886116</v>
+        <v>0.08402999999999999</v>
       </c>
       <c r="O4">
-        <v>0.569768540276437</v>
+        <v>0.01783505787001908</v>
       </c>
       <c r="P4">
-        <v>0.569768540276437</v>
+        <v>0.01783505787001909</v>
       </c>
       <c r="Q4">
-        <v>0.3900576631852966</v>
+        <v>0.001768980886666666</v>
       </c>
       <c r="R4">
-        <v>0.3900576631852966</v>
+        <v>0.01592082798</v>
       </c>
       <c r="S4">
-        <v>0.569768540276437</v>
+        <v>0.001550394292725434</v>
       </c>
       <c r="T4">
-        <v>0.569768540276437</v>
+        <v>0.001550394292725434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.189466</v>
+      </c>
+      <c r="I5">
+        <v>0.08692959137136654</v>
+      </c>
+      <c r="J5">
+        <v>0.08692959137136655</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.9458613333333332</v>
+      </c>
+      <c r="N5">
+        <v>2.837584</v>
+      </c>
+      <c r="O5">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="P5">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="Q5">
+        <v>0.05973618779377776</v>
+      </c>
+      <c r="R5">
+        <v>0.537625690144</v>
+      </c>
+      <c r="S5">
+        <v>0.05235480231737483</v>
+      </c>
+      <c r="T5">
+        <v>0.05235480231737484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.028136</v>
+      </c>
+      <c r="H6">
+        <v>0.084408</v>
+      </c>
+      <c r="I6">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J6">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.167255</v>
+      </c>
+      <c r="N6">
+        <v>0.501765</v>
+      </c>
+      <c r="O6">
+        <v>0.1064977723687984</v>
+      </c>
+      <c r="P6">
+        <v>0.1064977723687984</v>
+      </c>
+      <c r="Q6">
+        <v>0.00470588668</v>
+      </c>
+      <c r="R6">
+        <v>0.04235298012</v>
+      </c>
+      <c r="S6">
+        <v>0.004124397219821087</v>
+      </c>
+      <c r="T6">
+        <v>0.004124397219821087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.028136</v>
+      </c>
+      <c r="H7">
+        <v>0.084408</v>
+      </c>
+      <c r="I7">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J7">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.429376</v>
+      </c>
+      <c r="N7">
+        <v>1.288128</v>
+      </c>
+      <c r="O7">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="P7">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="Q7">
+        <v>0.012080923136</v>
+      </c>
+      <c r="R7">
+        <v>0.108728308224</v>
+      </c>
+      <c r="S7">
+        <v>0.01058812699565274</v>
+      </c>
+      <c r="T7">
+        <v>0.01058812699565274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.028136</v>
+      </c>
+      <c r="H8">
+        <v>0.084408</v>
+      </c>
+      <c r="I8">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J8">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02801</v>
+      </c>
+      <c r="N8">
+        <v>0.08402999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.01783505787001908</v>
+      </c>
+      <c r="P8">
+        <v>0.01783505787001909</v>
+      </c>
+      <c r="Q8">
+        <v>0.0007880893599999998</v>
+      </c>
+      <c r="R8">
+        <v>0.007092804239999999</v>
+      </c>
+      <c r="S8">
+        <v>0.0006907079975318443</v>
+      </c>
+      <c r="T8">
+        <v>0.0006907079975318444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.028136</v>
+      </c>
+      <c r="H9">
+        <v>0.084408</v>
+      </c>
+      <c r="I9">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="J9">
+        <v>0.03872754451180849</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9458613333333332</v>
+      </c>
+      <c r="N9">
+        <v>2.837584</v>
+      </c>
+      <c r="O9">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="P9">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="Q9">
+        <v>0.02661275447466666</v>
+      </c>
+      <c r="R9">
+        <v>0.239514790272</v>
+      </c>
+      <c r="S9">
+        <v>0.02332431229880282</v>
+      </c>
+      <c r="T9">
+        <v>0.02332431229880282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.073382</v>
+      </c>
+      <c r="H10">
+        <v>0.220146</v>
+      </c>
+      <c r="I10">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J10">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.167255</v>
+      </c>
+      <c r="N10">
+        <v>0.501765</v>
+      </c>
+      <c r="O10">
+        <v>0.1064977723687984</v>
+      </c>
+      <c r="P10">
+        <v>0.1064977723687984</v>
+      </c>
+      <c r="Q10">
+        <v>0.01227350641</v>
+      </c>
+      <c r="R10">
+        <v>0.11046155769</v>
+      </c>
+      <c r="S10">
+        <v>0.0107569134484259</v>
+      </c>
+      <c r="T10">
+        <v>0.0107569134484259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.073382</v>
+      </c>
+      <c r="H11">
+        <v>0.220146</v>
+      </c>
+      <c r="I11">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J11">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.429376</v>
+      </c>
+      <c r="N11">
+        <v>1.288128</v>
+      </c>
+      <c r="O11">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="P11">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="Q11">
+        <v>0.031508469632</v>
+      </c>
+      <c r="R11">
+        <v>0.283576226688</v>
+      </c>
+      <c r="S11">
+        <v>0.02761508157502806</v>
+      </c>
+      <c r="T11">
+        <v>0.02761508157502806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.073382</v>
+      </c>
+      <c r="H12">
+        <v>0.220146</v>
+      </c>
+      <c r="I12">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J12">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02801</v>
+      </c>
+      <c r="N12">
+        <v>0.08402999999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.01783505787001908</v>
+      </c>
+      <c r="P12">
+        <v>0.01783505787001909</v>
+      </c>
+      <c r="Q12">
+        <v>0.00205542982</v>
+      </c>
+      <c r="R12">
+        <v>0.01849886838</v>
+      </c>
+      <c r="S12">
+        <v>0.00180144776353717</v>
+      </c>
+      <c r="T12">
+        <v>0.00180144776353717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.073382</v>
+      </c>
+      <c r="H13">
+        <v>0.220146</v>
+      </c>
+      <c r="I13">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="J13">
+        <v>0.1010059948594516</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9458613333333332</v>
+      </c>
+      <c r="N13">
+        <v>2.837584</v>
+      </c>
+      <c r="O13">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="P13">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="Q13">
+        <v>0.06940919636266667</v>
+      </c>
+      <c r="R13">
+        <v>0.624682767264</v>
+      </c>
+      <c r="S13">
+        <v>0.0608325520724605</v>
+      </c>
+      <c r="T13">
+        <v>0.0608325520724605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H14">
+        <v>1.685514</v>
+      </c>
+      <c r="I14">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J14">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.167255</v>
+      </c>
+      <c r="N14">
+        <v>0.501765</v>
+      </c>
+      <c r="O14">
+        <v>0.1064977723687984</v>
+      </c>
+      <c r="P14">
+        <v>0.1064977723687984</v>
+      </c>
+      <c r="Q14">
+        <v>0.09397021469</v>
+      </c>
+      <c r="R14">
+        <v>0.84573193221</v>
+      </c>
+      <c r="S14">
+        <v>0.08235865386657093</v>
+      </c>
+      <c r="T14">
+        <v>0.08235865386657094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H15">
+        <v>1.685514</v>
+      </c>
+      <c r="I15">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J15">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.429376</v>
+      </c>
+      <c r="N15">
+        <v>1.288128</v>
+      </c>
+      <c r="O15">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="P15">
+        <v>0.2734004215636314</v>
+      </c>
+      <c r="Q15">
+        <v>0.241239753088</v>
+      </c>
+      <c r="R15">
+        <v>2.171157777792</v>
+      </c>
+      <c r="S15">
+        <v>0.2114306260656647</v>
+      </c>
+      <c r="T15">
+        <v>0.2114306260656648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H16">
+        <v>1.685514</v>
+      </c>
+      <c r="I16">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J16">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02801</v>
+      </c>
+      <c r="N16">
+        <v>0.08402999999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.01783505787001908</v>
+      </c>
+      <c r="P16">
+        <v>0.01783505787001909</v>
+      </c>
+      <c r="Q16">
+        <v>0.01573708238</v>
+      </c>
+      <c r="R16">
+        <v>0.14163374142</v>
+      </c>
+      <c r="S16">
+        <v>0.01379250781622463</v>
+      </c>
+      <c r="T16">
+        <v>0.01379250781622464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5618379999999999</v>
+      </c>
+      <c r="H17">
+        <v>1.685514</v>
+      </c>
+      <c r="I17">
+        <v>0.7733368692573733</v>
+      </c>
+      <c r="J17">
+        <v>0.7733368692573734</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9458613333333332</v>
+      </c>
+      <c r="N17">
+        <v>2.837584</v>
+      </c>
+      <c r="O17">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="P17">
+        <v>0.6022667481975512</v>
+      </c>
+      <c r="Q17">
+        <v>0.5314208397973332</v>
+      </c>
+      <c r="R17">
+        <v>4.782787558176</v>
+      </c>
+      <c r="S17">
+        <v>0.465755081508913</v>
+      </c>
+      <c r="T17">
+        <v>0.4657550815089131</v>
       </c>
     </row>
   </sheetData>
